--- a/Influencerxlsx.xlsx
+++ b/Influencerxlsx.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
   <si>
     <t>Dil Tablosu</t>
   </si>
@@ -158,20 +158,80 @@
     <t>MarkaID</t>
   </si>
   <si>
-    <t>seo</t>
-  </si>
-  <si>
-    <t>main</t>
+    <t>BaseEntity1</t>
+  </si>
+  <si>
+    <t>BaseEntity2</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>LastDateTime</t>
+  </si>
+  <si>
+    <t>IsActive</t>
+  </si>
+  <si>
+    <t>SeoTitle</t>
+  </si>
+  <si>
+    <t>SeoKeywords</t>
+  </si>
+  <si>
+    <t>SeoDesc</t>
+  </si>
+  <si>
+    <t>SeoAuthor</t>
+  </si>
+  <si>
+    <t>SeoCopyr</t>
+  </si>
+  <si>
+    <t>SeoDesign</t>
+  </si>
+  <si>
+    <t>SeoReply</t>
+  </si>
+  <si>
+    <t>SeoSubject</t>
+  </si>
+  <si>
+    <t>SeoTwitterTitle</t>
+  </si>
+  <si>
+    <t>SeoTwitterDesc</t>
+  </si>
+  <si>
+    <t>SeoTwitterUrl</t>
+  </si>
+  <si>
+    <t>SeoFacebookTitle</t>
+  </si>
+  <si>
+    <t>SeoFacebookDesc</t>
+  </si>
+  <si>
+    <t>SeoFacebookUrl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -198,8 +258,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="139" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,47 +552,48 @@
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -731,6 +793,108 @@
       </c>
       <c r="K14" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
